--- a/business_data.xlsx
+++ b/business_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>Name</t>
   </si>
@@ -62,13 +62,46 @@
   </si>
   <si>
     <t>City</t>
+  </si>
+  <si>
+    <t>Flood Brothers Plumbing Los Angeles</t>
+  </si>
+  <si>
+    <t>Fix It Quick Plumbing</t>
+  </si>
+  <si>
+    <t>https://www.yelp.com/biz/flood-brothers-plumbing-los-angeles-los-angeles?adjust_creative=OSEe66LcXS7fLDNMAbpUNw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=OSEe66LcXS7fLDNMAbpUNw</t>
+  </si>
+  <si>
+    <t>https://www.yelp.com/biz/fix-it-quick-plumbing-canoga-park-2?adjust_creative=OSEe66LcXS7fLDNMAbpUNw&amp;utm_campaign=yelp_api_v3&amp;utm_medium=api_v3_business_search&amp;utm_source=OSEe66LcXS7fLDNMAbpUNw</t>
+  </si>
+  <si>
+    <t>+18558407800</t>
+  </si>
+  <si>
+    <t>+18182704978</t>
+  </si>
+  <si>
+    <t>(855) 840-7800</t>
+  </si>
+  <si>
+    <t>(818) 270-4978</t>
+  </si>
+  <si>
+    <t>Los Angeles, CA 90046</t>
+  </si>
+  <si>
+    <t>7107 Penfield Ave, Canoga Park, CA 91306</t>
+  </si>
+  <si>
+    <t>Los Angeles</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,6 +116,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -117,16 +157,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -419,7 +465,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P1"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -475,7 +521,57 @@
         <v>15</v>
       </c>
     </row>
+    <row r="2" spans="1:16">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P3" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>